--- a/Excel/CraftRacipe.xlsx
+++ b/Excel/CraftRacipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Project\media\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A25072-6F7D-4EDE-95AF-BA9DA92974A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BF2902-12E9-4628-8FE7-BEF23E0C8C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49964522-7C3F-4735-92A8-2BDCDA9736E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CraftItem</t>
     <phoneticPr fontId="1"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>FailedVal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WoodBridge</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,13 +447,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501893D3-1BBD-423C-BF31-ED759519C7E9}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -483,6 +490,23 @@
       </c>
       <c r="E2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -492,6 +516,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010073B7343A2EEDD54B833DF7F911A269FE" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b5551f2ac287dce9896411bc92edf31c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85a460da-04c4-4937-bc15-5bce609a6b95" xmlns:ns3="7e319707-8ca9-4a74-a266-ed1035e9b3e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85a1edaa4937e0159201465a32563007" ns2:_="" ns3:_="">
     <xsd:import namespace="85a460da-04c4-4937-bc15-5bce609a6b95"/>
@@ -720,16 +753,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7554005C-01DF-4C95-82B3-C4EFB92CCFF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45A10B40-576F-438E-9C45-7096F67AA9B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -746,12 +778,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7554005C-01DF-4C95-82B3-C4EFB92CCFF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel/CraftRacipe.xlsx
+++ b/Excel/CraftRacipe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BF2902-12E9-4628-8FE7-BEF23E0C8C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE3D23B-1D47-45E2-A4CD-3FA354F0D7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49964522-7C3F-4735-92A8-2BDCDA9736E3}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{49964522-7C3F-4735-92A8-2BDCDA9736E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CraftItem</t>
     <phoneticPr fontId="1"/>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>WoodBridge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GearNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Crossing</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -447,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501893D3-1BBD-423C-BF31-ED759519C7E9}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -458,7 +466,7 @@
     <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,13 +477,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -486,13 +497,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -503,10 +517,33 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -516,15 +553,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010073B7343A2EEDD54B833DF7F911A269FE" ma:contentTypeVersion="14" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b5551f2ac287dce9896411bc92edf31c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85a460da-04c4-4937-bc15-5bce609a6b95" xmlns:ns3="7e319707-8ca9-4a74-a266-ed1035e9b3e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85a1edaa4937e0159201465a32563007" ns2:_="" ns3:_="">
     <xsd:import namespace="85a460da-04c4-4937-bc15-5bce609a6b95"/>
@@ -753,15 +781,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7554005C-01DF-4C95-82B3-C4EFB92CCFF3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45A10B40-576F-438E-9C45-7096F67AA9B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -778,4 +807,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7554005C-01DF-4C95-82B3-C4EFB92CCFF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>